--- a/Project3705_K. Araujo-Vieira(2019).xlsx
+++ b/Project3705_K. Araujo-Vieira(2019).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639D0D55-D86F-E740-BE55-E000A996F519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57962C2-EF1F-421B-B144-B206DEE3A06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{77F1F6C2-35A7-D941-8ED6-BBEDF1D994A1}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="15870" windowHeight="18585" xr2:uid="{77F1F6C2-35A7-D941-8ED6-BBEDF1D994A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Project3705" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="206">
   <si>
     <t>Charlabels</t>
   </si>
@@ -654,9 +654,6 @@
   </si>
   <si>
     <t>NT?;0=0-;1=11;2=12;3=13</t>
-  </si>
-  <si>
-    <t>NT?;0=0-;1=11;2=12;3=13:4=14;5=15</t>
   </si>
 </sst>
 </file>
@@ -1103,17 +1100,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D0014A-5D19-9042-B4C9-4EE58EB2FBC0}">
   <dimension ref="A1:C194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -1135,7 +1132,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1146,7 +1143,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1157,7 +1154,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1168,7 +1165,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1179,7 +1176,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1190,7 +1187,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1198,7 +1195,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1209,7 +1206,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +1217,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1231,7 +1228,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1242,7 +1239,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1253,7 +1250,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1264,7 +1261,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1275,7 +1272,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1286,7 +1283,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1297,7 +1294,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1308,7 +1305,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1319,7 +1316,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1330,7 +1327,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1341,7 +1338,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1352,7 +1349,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1363,7 +1360,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1374,7 +1371,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1382,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1396,7 +1393,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1407,7 +1404,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1418,7 +1415,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1429,7 +1426,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1440,7 +1437,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1451,7 +1448,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1459,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1473,7 +1470,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1484,7 +1481,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1495,7 +1492,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1506,7 +1503,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1517,7 +1514,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1528,7 +1525,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1539,7 +1536,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1550,7 +1547,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1561,7 +1558,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1572,7 +1569,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1583,7 +1580,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1594,7 +1591,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1602,7 +1599,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1613,7 +1610,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1624,7 +1621,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1635,7 +1632,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1646,7 +1643,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1657,7 +1654,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1668,7 +1665,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1676,7 +1673,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1687,7 +1684,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1698,7 +1695,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1706,7 +1703,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1714,7 +1711,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1725,7 +1722,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1736,7 +1733,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1747,7 +1744,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1758,7 +1755,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1769,7 +1766,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1780,7 +1777,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1791,7 +1788,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1802,7 +1799,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1813,7 +1810,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1824,7 +1821,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1835,7 +1832,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1846,7 +1843,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1857,7 +1854,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1868,7 +1865,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1879,7 +1876,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1890,7 +1887,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -1901,7 +1898,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -1912,7 +1909,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -1923,7 +1920,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -1934,7 +1931,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -1945,7 +1942,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1956,7 +1953,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1967,7 +1964,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1975,7 +1972,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1986,7 +1983,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -1997,7 +1994,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2008,7 +2005,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2019,7 +2016,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2030,7 +2027,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2041,7 +2038,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2052,7 +2049,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2063,7 +2060,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2074,7 +2071,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2085,7 +2082,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2096,7 +2093,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2107,7 +2104,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2118,7 +2115,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2129,7 +2126,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2140,7 +2137,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2151,7 +2148,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2159,7 +2156,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2170,7 +2167,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2181,7 +2178,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2192,7 +2189,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2203,7 +2200,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2214,7 +2211,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2222,7 +2219,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2233,7 +2230,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2244,7 +2241,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2255,7 +2252,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2266,7 +2263,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2277,7 +2274,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2288,7 +2285,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2296,7 +2293,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2307,7 +2304,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2318,7 +2315,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2329,7 +2326,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2340,7 +2337,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2351,7 +2348,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2362,7 +2359,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2373,7 +2370,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2384,7 +2381,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2392,7 +2389,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2400,7 +2397,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2411,7 +2408,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2419,7 +2416,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2430,7 +2427,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2438,7 +2435,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2446,7 +2443,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2454,7 +2451,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2465,7 +2462,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2476,7 +2473,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2484,15 +2481,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2500,7 +2497,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2511,7 +2508,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2522,7 +2519,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2533,7 +2530,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -2544,7 +2541,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -2555,7 +2552,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -2566,7 +2563,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -2577,7 +2574,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -2588,7 +2585,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -2599,7 +2596,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -2610,7 +2607,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -2621,7 +2618,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -2632,7 +2629,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -2643,7 +2640,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -2654,7 +2651,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -2665,7 +2662,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -2676,7 +2673,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -2687,7 +2684,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -2698,7 +2695,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -2709,7 +2706,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -2720,7 +2717,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -2731,7 +2728,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -2742,7 +2739,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -2753,7 +2750,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -2764,7 +2761,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -2775,7 +2772,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -2786,7 +2783,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -2797,7 +2794,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -2808,7 +2805,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -2819,7 +2816,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -2830,7 +2827,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -2841,7 +2838,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -2852,7 +2849,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -2863,7 +2860,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -2874,7 +2871,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -2885,7 +2882,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -2896,7 +2893,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -2907,7 +2904,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -2918,7 +2915,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -2929,7 +2926,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -2940,7 +2937,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -2951,7 +2948,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -2962,7 +2959,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -2973,7 +2970,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -2984,7 +2981,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -2995,7 +2992,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -3006,7 +3003,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -3017,7 +3014,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -3028,7 +3025,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -3039,7 +3036,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -3050,7 +3047,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -3061,7 +3058,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -3072,7 +3069,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -3083,7 +3080,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -3094,7 +3091,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -3105,7 +3102,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -3116,7 +3113,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -3127,7 +3124,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -3138,7 +3135,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -3149,7 +3146,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -3160,7 +3157,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -3171,7 +3168,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -3182,7 +3179,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>194</v>
       </c>
